--- a/Mechanical/Wheel Assembly/Wheel Assembly Parts List.xlsx
+++ b/Mechanical/Wheel Assembly/Wheel Assembly Parts List.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ejunkins\Desktop\open_source_rover\Documentation\Mechanical Assembly\Wheel Assembly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ejunkins\Desktop\osr\Mechanical\Wheel Assembly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="67">
   <si>
     <t>Part</t>
   </si>
@@ -216,6 +216,15 @@
   </si>
   <si>
     <t>https://www.mcmaster.com/#92949a144/=18njs1n</t>
+  </si>
+  <si>
+    <t>The cost information contained in this document is of a budgetary and planning nature and is intended for informational purposes only.  It does not constitute a commitment on the part of JPL and/or Caltech.</t>
+  </si>
+  <si>
+    <t>Author: Eric Junkins, Jet Propulsion Laboratory, California Institute of Technology</t>
+  </si>
+  <si>
+    <t>© 2018 California Institute of Technology. Government sponsorship acknowledged</t>
   </si>
 </sst>
 </file>
@@ -303,7 +312,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -354,12 +363,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -416,6 +443,27 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -697,276 +745,219 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z18"/>
+  <dimension ref="A1:Z21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="44.28515625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="4"/>
-    <col min="5" max="5" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" style="4" customWidth="1"/>
-    <col min="11" max="11" width="91.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.265625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.265625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14.06640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.06640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.19921875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="12.1328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.73046875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="16.86328125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="91.3984375" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:26" ht="32.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+    </row>
+    <row r="2" spans="1:26" ht="27.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+    </row>
+    <row r="3" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+    </row>
+    <row r="4" spans="1:26" ht="40.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B5" s="8">
         <v>6</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C5" s="8">
         <v>6</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D5" s="9">
         <v>2</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="11">
-        <v>25.27</v>
-      </c>
-      <c r="J2" s="11">
-        <v>75.81</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="8">
-        <v>100</v>
-      </c>
-      <c r="C3" s="8">
-        <v>8</v>
-      </c>
-      <c r="D3" s="9">
-        <v>100</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="11">
-        <v>5.2</v>
-      </c>
-      <c r="J3" s="11">
-        <v>5.2</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="8">
-        <v>50</v>
-      </c>
-      <c r="C4" s="8">
-        <v>12</v>
-      </c>
-      <c r="D4" s="9">
-        <v>50</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="11">
-        <v>6.16</v>
-      </c>
-      <c r="J4" s="11">
-        <v>6.16</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="8">
-        <v>4</v>
-      </c>
-      <c r="C5" s="8">
-        <v>4</v>
-      </c>
-      <c r="D5" s="9">
-        <v>1</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="14">
-        <v>545588</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>15</v>
       </c>
       <c r="I5" s="11">
-        <v>5.99</v>
+        <v>25.27</v>
       </c>
       <c r="J5" s="11">
-        <v>23.96</v>
+        <v>75.81</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B6" s="8">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="C6" s="8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D6" s="9">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="7">
-        <v>545608</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="I6" s="11">
-        <v>5.99</v>
+        <v>5.2</v>
       </c>
       <c r="J6" s="11">
-        <v>35.94</v>
+        <v>5.2</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B7" s="8">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C7" s="8">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D7" s="9">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="7">
-        <v>545680</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="I7" s="11">
-        <v>5.99</v>
+        <v>6.16</v>
       </c>
       <c r="J7" s="11">
-        <v>35.94</v>
+        <v>6.16</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A8" s="7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B8" s="8">
         <v>4</v>
@@ -981,303 +972,411 @@
         <v>28</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>37</v>
+        <v>29</v>
+      </c>
+      <c r="G8" s="14">
+        <v>545588</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>15</v>
       </c>
       <c r="I8" s="11">
-        <v>3.69</v>
+        <v>5.99</v>
       </c>
       <c r="J8" s="11">
-        <v>14.76</v>
+        <v>23.96</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="17">
-        <v>4</v>
-      </c>
-      <c r="C9" s="17">
-        <v>4</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="8">
+        <v>6</v>
+      </c>
+      <c r="C9" s="8">
+        <v>6</v>
       </c>
       <c r="D9" s="9">
         <v>1</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="16">
-        <v>585444</v>
-      </c>
-      <c r="H9" s="18" t="s">
+      <c r="F9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="7">
+        <v>545608</v>
+      </c>
+      <c r="H9" s="10" t="s">
         <v>15</v>
       </c>
       <c r="I9" s="11">
-        <v>4.99</v>
+        <v>5.99</v>
       </c>
       <c r="J9" s="11">
-        <v>19.96</v>
+        <v>35.94</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A10" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="17">
-        <v>1</v>
-      </c>
-      <c r="C10" s="17">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="B10" s="8">
+        <v>6</v>
+      </c>
+      <c r="C10" s="8">
+        <v>6</v>
       </c>
       <c r="D10" s="9">
         <v>1</v>
       </c>
-      <c r="E10" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>45</v>
+      <c r="E10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="7">
+        <v>545680</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="I10" s="11">
-        <v>6.49</v>
+        <v>5.99</v>
       </c>
       <c r="J10" s="11">
-        <v>6.49</v>
-      </c>
-      <c r="K10" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="L10" s="5"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="6"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+        <v>35.94</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A11" s="7" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B11" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C11" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D11" s="9">
         <v>1</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>37</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="I11" s="11">
-        <v>5.42</v>
+        <v>3.69</v>
       </c>
       <c r="J11" s="11">
-        <v>5.42</v>
+        <v>14.76</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="L11" s="5"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="8">
-        <v>6</v>
-      </c>
-      <c r="C12" s="8">
-        <v>6</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A12" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="17">
+        <v>4</v>
+      </c>
+      <c r="C12" s="17">
+        <v>4</v>
       </c>
       <c r="D12" s="9">
         <v>1</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>53</v>
+      <c r="E12" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="16">
+        <v>585444</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>15</v>
       </c>
       <c r="I12" s="11">
-        <v>34.950000000000003</v>
+        <v>4.99</v>
       </c>
       <c r="J12" s="11">
-        <f>B12/D12*I12</f>
-        <v>209.70000000000002</v>
+        <v>19.96</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="L12" s="5"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A13" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="8">
-        <v>10</v>
-      </c>
-      <c r="C13" s="8">
-        <v>10</v>
+        <v>42</v>
+      </c>
+      <c r="B13" s="17">
+        <v>1</v>
+      </c>
+      <c r="C13" s="17">
+        <v>1</v>
       </c>
       <c r="D13" s="9">
         <v>1</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" s="7">
-        <v>585442</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>15</v>
+      <c r="E13" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>45</v>
       </c>
       <c r="I13" s="11">
-        <v>3.99</v>
+        <v>6.49</v>
       </c>
       <c r="J13" s="11">
-        <f>B13/D13*I13</f>
-        <v>39.900000000000006</v>
-      </c>
-      <c r="K13" s="12" t="s">
-        <v>57</v>
+        <v>6.49</v>
+      </c>
+      <c r="K13" s="19" t="s">
+        <v>46</v>
       </c>
       <c r="L13" s="5"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B14" s="8">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C14" s="8">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D14" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" s="7">
-        <v>545532</v>
+        <v>48</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="I14" s="11">
-        <v>3.99</v>
+        <v>5.42</v>
       </c>
       <c r="J14" s="11">
-        <f>B14/D14*I14</f>
-        <v>31.92</v>
+        <v>5.42</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A15" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B15" s="8">
-        <v>200</v>
+        <v>6</v>
       </c>
       <c r="C15" s="8">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="D15" s="9">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="I15" s="11">
-        <v>3.45</v>
+        <v>34.950000000000003</v>
       </c>
       <c r="J15" s="11">
         <f>B15/D15*I15</f>
+        <v>209.70000000000002</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="L15" s="5"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="8">
+        <v>10</v>
+      </c>
+      <c r="C16" s="8">
+        <v>10</v>
+      </c>
+      <c r="D16" s="9">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="7">
+        <v>585442</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="11">
+        <v>3.99</v>
+      </c>
+      <c r="J16" s="11">
+        <f>B16/D16*I16</f>
+        <v>39.900000000000006</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="L16" s="5"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A17" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="8">
+        <v>16</v>
+      </c>
+      <c r="C17" s="8">
+        <v>16</v>
+      </c>
+      <c r="D17" s="9">
+        <v>2</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="7">
+        <v>545532</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="11">
+        <v>3.99</v>
+      </c>
+      <c r="J17" s="11">
+        <f>B17/D17*I17</f>
+        <v>31.92</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="L17" s="5"/>
+    </row>
+    <row r="18" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="8">
+        <v>200</v>
+      </c>
+      <c r="C18" s="8">
+        <v>100</v>
+      </c>
+      <c r="D18" s="9">
+        <v>100</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="11">
+        <v>3.45</v>
+      </c>
+      <c r="J18" s="11">
+        <f>B18/D18*I18</f>
         <v>6.9</v>
       </c>
-      <c r="K15" s="20" t="s">
+      <c r="K18" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="N15" s="5"/>
-    </row>
-    <row r="18" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J18" s="21">
-        <f>SUM(J2:J15)</f>
+      <c r="N18" s="5"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="J21" s="21">
+        <f>SUM(J5:J18)</f>
         <v>518.06000000000006</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:L1"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1"/>
-    <hyperlink ref="K3" r:id="rId2" location="92196A148"/>
-    <hyperlink ref="K5" r:id="rId3" location="348=95"/>
-    <hyperlink ref="K6" r:id="rId4" location="348=96"/>
-    <hyperlink ref="K7" r:id="rId5"/>
-    <hyperlink ref="K8" r:id="rId6" location="199=15"/>
-    <hyperlink ref="K9" r:id="rId7"/>
-    <hyperlink ref="K10" r:id="rId8"/>
-    <hyperlink ref="K11" r:id="rId9" location="Ask"/>
-    <hyperlink ref="K12" r:id="rId10"/>
-    <hyperlink ref="K13" r:id="rId11"/>
-    <hyperlink ref="K14" r:id="rId12"/>
-    <hyperlink ref="K15" r:id="rId13" location="92949a144/=18njs1n"/>
+    <hyperlink ref="K5" r:id="rId1"/>
+    <hyperlink ref="K6" r:id="rId2" location="92196A148"/>
+    <hyperlink ref="K8" r:id="rId3" location="348=95"/>
+    <hyperlink ref="K9" r:id="rId4" location="348=96"/>
+    <hyperlink ref="K10" r:id="rId5"/>
+    <hyperlink ref="K11" r:id="rId6" location="199=15"/>
+    <hyperlink ref="K12" r:id="rId7"/>
+    <hyperlink ref="K13" r:id="rId8"/>
+    <hyperlink ref="K14" r:id="rId9" location="Ask"/>
+    <hyperlink ref="K15" r:id="rId10"/>
+    <hyperlink ref="K16" r:id="rId11"/>
+    <hyperlink ref="K17" r:id="rId12"/>
+    <hyperlink ref="K18" r:id="rId13" location="92949a144/=18njs1n"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
